--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="650">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1962,6 +1962,9 @@
   <si>
     <t>['15', '21', '86']</t>
   </si>
+  <si>
+    <t>['34', '48']</t>
+  </si>
 </sst>
 </file>
 
@@ -2322,7 +2325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP553"/>
+  <dimension ref="A1:BP554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4307,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ10">
         <v>1.74</v>
@@ -4928,7 +4931,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -8839,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ32">
         <v>0.96</v>
@@ -11311,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -13374,7 +13377,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ54">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>1.05</v>
@@ -16461,7 +16464,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ69">
         <v>1.35</v>
@@ -17494,7 +17497,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ74">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>2.25</v>
@@ -19760,7 +19763,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR85">
         <v>1.24</v>
@@ -24083,7 +24086,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ106">
         <v>0.87</v>
@@ -26146,7 +26149,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ116">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -29027,7 +29030,7 @@
         <v>1.8</v>
       </c>
       <c r="AP130">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ130">
         <v>1.22</v>
@@ -30060,7 +30063,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ135">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR135">
         <v>1.57</v>
@@ -32941,7 +32944,7 @@
         <v>0</v>
       </c>
       <c r="AP149">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ149">
         <v>0.78</v>
@@ -34386,7 +34389,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ156">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR156">
         <v>1.37</v>
@@ -38297,7 +38300,7 @@
         <v>2</v>
       </c>
       <c r="AP175">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ175">
         <v>1.83</v>
@@ -43862,7 +43865,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ202">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR202">
         <v>1.68</v>
@@ -44065,7 +44068,7 @@
         <v>1.5</v>
       </c>
       <c r="AP203">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ203">
         <v>1</v>
@@ -46125,10 +46128,10 @@
         <v>0.75</v>
       </c>
       <c r="AP213">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ213">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR213">
         <v>1.22</v>
@@ -52102,7 +52105,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ242">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR242">
         <v>1.64</v>
@@ -53747,7 +53750,7 @@
         <v>1.11</v>
       </c>
       <c r="AP250">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ250">
         <v>0.96</v>
@@ -55395,7 +55398,7 @@
         <v>1.75</v>
       </c>
       <c r="AP258">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ258">
         <v>1.22</v>
@@ -58694,7 +58697,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ274">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR274">
         <v>1.46</v>
@@ -61166,7 +61169,7 @@
         <v>2</v>
       </c>
       <c r="AQ286">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR286">
         <v>2</v>
@@ -62605,7 +62608,7 @@
         <v>1.31</v>
       </c>
       <c r="AP293">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ293">
         <v>1.48</v>
@@ -64874,7 +64877,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ304">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR304">
         <v>1.29</v>
@@ -67755,7 +67758,7 @@
         <v>0.79</v>
       </c>
       <c r="AP318">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ318">
         <v>0.7</v>
@@ -70021,7 +70024,7 @@
         <v>1.2</v>
       </c>
       <c r="AP329">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ329">
         <v>1.22</v>
@@ -73938,7 +73941,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ348">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR348">
         <v>1.29</v>
@@ -76201,7 +76204,7 @@
         <v>1.15</v>
       </c>
       <c r="AP359">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ359">
         <v>1.48</v>
@@ -79088,7 +79091,7 @@
         <v>1</v>
       </c>
       <c r="AQ373">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR373">
         <v>1.42</v>
@@ -80118,7 +80121,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ378">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR378">
         <v>1.4</v>
@@ -81763,7 +81766,7 @@
         <v>1.69</v>
       </c>
       <c r="AP386">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ386">
         <v>1.43</v>
@@ -86501,7 +86504,7 @@
         <v>1.35</v>
       </c>
       <c r="AP409">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ409">
         <v>1.3</v>
@@ -87328,7 +87331,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ413">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR413">
         <v>1.5</v>
@@ -88976,7 +88979,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ421">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR421">
         <v>1.45</v>
@@ -92269,7 +92272,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP437">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ437">
         <v>0.78</v>
@@ -94538,7 +94541,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ448">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR448">
         <v>1.47</v>
@@ -97007,7 +97010,7 @@
         <v>1.32</v>
       </c>
       <c r="AP460">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ460">
         <v>1.13</v>
@@ -101130,7 +101133,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ480">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR480">
         <v>1.52</v>
@@ -101539,7 +101542,7 @@
         <v>0.89</v>
       </c>
       <c r="AP482">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ482">
         <v>1</v>
@@ -104426,7 +104429,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ496">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR496">
         <v>1.2</v>
@@ -108749,7 +108752,7 @@
         <v>0.7</v>
       </c>
       <c r="AP517">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ517">
         <v>0.74</v>
@@ -111015,7 +111018,7 @@
         <v>1.41</v>
       </c>
       <c r="AP528">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AQ528">
         <v>1.48</v>
@@ -113490,7 +113493,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ540">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR540">
         <v>1.45</v>
@@ -114520,7 +114523,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ545">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AR545">
         <v>1.45</v>
@@ -116244,6 +116247,212 @@
       </c>
       <c r="BP553">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="554" spans="1:68">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="B554">
+        <v>7424138</v>
+      </c>
+      <c r="C554" t="s">
+        <v>68</v>
+      </c>
+      <c r="D554" t="s">
+        <v>69</v>
+      </c>
+      <c r="E554" s="2">
+        <v>45418.5625</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
+      </c>
+      <c r="G554" t="s">
+        <v>78</v>
+      </c>
+      <c r="H554" t="s">
+        <v>77</v>
+      </c>
+      <c r="I554">
+        <v>0</v>
+      </c>
+      <c r="J554">
+        <v>1</v>
+      </c>
+      <c r="K554">
+        <v>1</v>
+      </c>
+      <c r="L554">
+        <v>0</v>
+      </c>
+      <c r="M554">
+        <v>2</v>
+      </c>
+      <c r="N554">
+        <v>2</v>
+      </c>
+      <c r="O554" t="s">
+        <v>99</v>
+      </c>
+      <c r="P554" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q554">
+        <v>3.4</v>
+      </c>
+      <c r="R554">
+        <v>2.2</v>
+      </c>
+      <c r="S554">
+        <v>3.1</v>
+      </c>
+      <c r="T554">
+        <v>1.36</v>
+      </c>
+      <c r="U554">
+        <v>3</v>
+      </c>
+      <c r="V554">
+        <v>2.75</v>
+      </c>
+      <c r="W554">
+        <v>1.4</v>
+      </c>
+      <c r="X554">
+        <v>8</v>
+      </c>
+      <c r="Y554">
+        <v>1.08</v>
+      </c>
+      <c r="Z554">
+        <v>2.63</v>
+      </c>
+      <c r="AA554">
+        <v>3.2</v>
+      </c>
+      <c r="AB554">
+        <v>2.45</v>
+      </c>
+      <c r="AC554">
+        <v>1.04</v>
+      </c>
+      <c r="AD554">
+        <v>13</v>
+      </c>
+      <c r="AE554">
+        <v>1.3</v>
+      </c>
+      <c r="AF554">
+        <v>3.5</v>
+      </c>
+      <c r="AG554">
+        <v>1.91</v>
+      </c>
+      <c r="AH554">
+        <v>1.83</v>
+      </c>
+      <c r="AI554">
+        <v>1.73</v>
+      </c>
+      <c r="AJ554">
+        <v>2</v>
+      </c>
+      <c r="AK554">
+        <v>1.57</v>
+      </c>
+      <c r="AL554">
+        <v>1.25</v>
+      </c>
+      <c r="AM554">
+        <v>1.47</v>
+      </c>
+      <c r="AN554">
+        <v>1.54</v>
+      </c>
+      <c r="AO554">
+        <v>1.54</v>
+      </c>
+      <c r="AP554">
+        <v>1.51</v>
+      </c>
+      <c r="AQ554">
+        <v>1.57</v>
+      </c>
+      <c r="AR554">
+        <v>1.25</v>
+      </c>
+      <c r="AS554">
+        <v>1.22</v>
+      </c>
+      <c r="AT554">
+        <v>2.47</v>
+      </c>
+      <c r="AU554">
+        <v>3</v>
+      </c>
+      <c r="AV554">
+        <v>8</v>
+      </c>
+      <c r="AW554">
+        <v>2</v>
+      </c>
+      <c r="AX554">
+        <v>2</v>
+      </c>
+      <c r="AY554">
+        <v>5</v>
+      </c>
+      <c r="AZ554">
+        <v>10</v>
+      </c>
+      <c r="BA554">
+        <v>3</v>
+      </c>
+      <c r="BB554">
+        <v>3</v>
+      </c>
+      <c r="BC554">
+        <v>6</v>
+      </c>
+      <c r="BD554">
+        <v>1.95</v>
+      </c>
+      <c r="BE554">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF554">
+        <v>2.11</v>
+      </c>
+      <c r="BG554">
+        <v>1.14</v>
+      </c>
+      <c r="BH554">
+        <v>4.6</v>
+      </c>
+      <c r="BI554">
+        <v>1.3</v>
+      </c>
+      <c r="BJ554">
+        <v>3.08</v>
+      </c>
+      <c r="BK554">
+        <v>1.55</v>
+      </c>
+      <c r="BL554">
+        <v>2.29</v>
+      </c>
+      <c r="BM554">
+        <v>1.93</v>
+      </c>
+      <c r="BN554">
+        <v>1.81</v>
+      </c>
+      <c r="BO554">
+        <v>2.46</v>
+      </c>
+      <c r="BP554">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="652">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1968,6 +1968,9 @@
   <si>
     <t>['34', '48']</t>
   </si>
+  <si>
+    <t>['6', '16']</t>
+  </si>
 </sst>
 </file>
 
@@ -2328,7 +2331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP555"/>
+  <dimension ref="A1:BP556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4107,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9">
         <v>1.43</v>
@@ -5346,7 +5349,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -9257,7 +9260,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ34">
         <v>1.74</v>
@@ -12141,7 +12144,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -13998,7 +14001,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ57">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.87</v>
@@ -16673,7 +16676,7 @@
         <v>2</v>
       </c>
       <c r="AP70">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ70">
         <v>0.7</v>
@@ -18324,7 +18327,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ78">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -21620,7 +21623,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ94">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.5</v>
@@ -23883,7 +23886,7 @@
         <v>2.25</v>
       </c>
       <c r="AP105">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ105">
         <v>1.22</v>
@@ -24504,7 +24507,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ108">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR108">
         <v>2.15</v>
@@ -28827,7 +28830,7 @@
         <v>1.25</v>
       </c>
       <c r="AP129">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ129">
         <v>1.48</v>
@@ -30272,7 +30275,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -33153,7 +33156,7 @@
         <v>0</v>
       </c>
       <c r="AP150">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ150">
         <v>0.78</v>
@@ -35216,7 +35219,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ160">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR160">
         <v>1.72</v>
@@ -38097,7 +38100,7 @@
         <v>1.29</v>
       </c>
       <c r="AP174">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ174">
         <v>1.22</v>
@@ -39748,7 +39751,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ182">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR182">
         <v>1.22</v>
@@ -40981,7 +40984,7 @@
         <v>0.43</v>
       </c>
       <c r="AP188">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ188">
         <v>0.74</v>
@@ -48606,7 +48609,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ225">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR225">
         <v>1.33</v>
@@ -50869,7 +50872,7 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ236">
         <v>0.87</v>
@@ -51490,7 +51493,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ239">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR239">
         <v>1.48</v>
@@ -53341,7 +53344,7 @@
         <v>1</v>
       </c>
       <c r="AP248">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ248">
         <v>1.3</v>
@@ -55607,7 +55610,7 @@
         <v>1.17</v>
       </c>
       <c r="AP259">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ259">
         <v>1.48</v>
@@ -59112,7 +59115,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ276">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR276">
         <v>1.41</v>
@@ -60760,7 +60763,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ284">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR284">
         <v>1.33</v>
@@ -64465,7 +64468,7 @@
         <v>1.36</v>
       </c>
       <c r="AP302">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ302">
         <v>1.29</v>
@@ -65292,7 +65295,7 @@
         <v>2</v>
       </c>
       <c r="AQ306">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR306">
         <v>1.97</v>
@@ -67555,7 +67558,7 @@
         <v>0.77</v>
       </c>
       <c r="AP317">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ317">
         <v>0.96</v>
@@ -69206,7 +69209,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ325">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR325">
         <v>1.35</v>
@@ -70233,7 +70236,7 @@
         <v>1.75</v>
       </c>
       <c r="AP330">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ330">
         <v>1.83</v>
@@ -74150,7 +74153,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ349">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR349">
         <v>1.4</v>
@@ -75383,7 +75386,7 @@
         <v>0.73</v>
       </c>
       <c r="AP355">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ355">
         <v>0.78</v>
@@ -78476,7 +78479,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ370">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR370">
         <v>1.62</v>
@@ -82802,7 +82805,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ391">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR391">
         <v>1.48</v>
@@ -83623,7 +83626,7 @@
         <v>1.29</v>
       </c>
       <c r="AP395">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ395">
         <v>1.13</v>
@@ -90421,10 +90424,10 @@
         <v>1.59</v>
       </c>
       <c r="AP428">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ428">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR428">
         <v>1.29</v>
@@ -94956,7 +94959,7 @@
         <v>2.04</v>
       </c>
       <c r="AQ450">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR450">
         <v>1.53</v>
@@ -98043,7 +98046,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP465">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ465">
         <v>1</v>
@@ -99900,7 +99903,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ474">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR474">
         <v>1.47</v>
@@ -103399,7 +103402,7 @@
         <v>1.4</v>
       </c>
       <c r="AP491">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ491">
         <v>1.48</v>
@@ -105874,7 +105877,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ503">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR503">
         <v>1.6</v>
@@ -106698,7 +106701,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ507">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR507">
         <v>1.19</v>
@@ -106901,7 +106904,7 @@
         <v>1.1</v>
       </c>
       <c r="AP508">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ508">
         <v>1</v>
@@ -108549,7 +108552,7 @@
         <v>1.1</v>
       </c>
       <c r="AP516">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ516">
         <v>0.96</v>
@@ -113081,7 +113084,7 @@
         <v>1.27</v>
       </c>
       <c r="AP538">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ538">
         <v>1.22</v>
@@ -115968,7 +115971,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ552">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR552">
         <v>1.44</v>
@@ -116377,10 +116380,10 @@
         <v>1.54</v>
       </c>
       <c r="AP554">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AQ554">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AR554">
         <v>1.25</v>
@@ -116662,6 +116665,212 @@
       </c>
       <c r="BP555">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="556" spans="1:68">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556">
+        <v>7424140</v>
+      </c>
+      <c r="C556" t="s">
+        <v>68</v>
+      </c>
+      <c r="D556" t="s">
+        <v>69</v>
+      </c>
+      <c r="E556" s="2">
+        <v>45422.66666666666</v>
+      </c>
+      <c r="F556">
+        <v>0</v>
+      </c>
+      <c r="G556" t="s">
+        <v>77</v>
+      </c>
+      <c r="H556" t="s">
+        <v>78</v>
+      </c>
+      <c r="I556">
+        <v>0</v>
+      </c>
+      <c r="J556">
+        <v>2</v>
+      </c>
+      <c r="K556">
+        <v>2</v>
+      </c>
+      <c r="L556">
+        <v>0</v>
+      </c>
+      <c r="M556">
+        <v>2</v>
+      </c>
+      <c r="N556">
+        <v>2</v>
+      </c>
+      <c r="O556" t="s">
+        <v>99</v>
+      </c>
+      <c r="P556" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q556">
+        <v>2.15</v>
+      </c>
+      <c r="R556">
+        <v>2.38</v>
+      </c>
+      <c r="S556">
+        <v>4.2</v>
+      </c>
+      <c r="T556">
+        <v>1.28</v>
+      </c>
+      <c r="U556">
+        <v>3.3</v>
+      </c>
+      <c r="V556">
+        <v>2.38</v>
+      </c>
+      <c r="W556">
+        <v>1.53</v>
+      </c>
+      <c r="X556">
+        <v>5.5</v>
+      </c>
+      <c r="Y556">
+        <v>1.12</v>
+      </c>
+      <c r="Z556">
+        <v>1.75</v>
+      </c>
+      <c r="AA556">
+        <v>3.75</v>
+      </c>
+      <c r="AB556">
+        <v>4.33</v>
+      </c>
+      <c r="AC556">
+        <v>1.03</v>
+      </c>
+      <c r="AD556">
+        <v>11</v>
+      </c>
+      <c r="AE556">
+        <v>1.18</v>
+      </c>
+      <c r="AF556">
+        <v>4.75</v>
+      </c>
+      <c r="AG556">
+        <v>1.69</v>
+      </c>
+      <c r="AH556">
+        <v>1.97</v>
+      </c>
+      <c r="AI556">
+        <v>1.57</v>
+      </c>
+      <c r="AJ556">
+        <v>2.2</v>
+      </c>
+      <c r="AK556">
+        <v>1.22</v>
+      </c>
+      <c r="AL556">
+        <v>1.18</v>
+      </c>
+      <c r="AM556">
+        <v>2.1</v>
+      </c>
+      <c r="AN556">
+        <v>1.57</v>
+      </c>
+      <c r="AO556">
+        <v>1.51</v>
+      </c>
+      <c r="AP556">
+        <v>1.54</v>
+      </c>
+      <c r="AQ556">
+        <v>1.54</v>
+      </c>
+      <c r="AR556">
+        <v>1.39</v>
+      </c>
+      <c r="AS556">
+        <v>1.26</v>
+      </c>
+      <c r="AT556">
+        <v>2.65</v>
+      </c>
+      <c r="AU556">
+        <v>6</v>
+      </c>
+      <c r="AV556">
+        <v>3</v>
+      </c>
+      <c r="AW556">
+        <v>4</v>
+      </c>
+      <c r="AX556">
+        <v>3</v>
+      </c>
+      <c r="AY556">
+        <v>10</v>
+      </c>
+      <c r="AZ556">
+        <v>6</v>
+      </c>
+      <c r="BA556">
+        <v>10</v>
+      </c>
+      <c r="BB556">
+        <v>6</v>
+      </c>
+      <c r="BC556">
+        <v>16</v>
+      </c>
+      <c r="BD556">
+        <v>1.85</v>
+      </c>
+      <c r="BE556">
+        <v>8.5</v>
+      </c>
+      <c r="BF556">
+        <v>2.27</v>
+      </c>
+      <c r="BG556">
+        <v>1.2</v>
+      </c>
+      <c r="BH556">
+        <v>4</v>
+      </c>
+      <c r="BI556">
+        <v>1.29</v>
+      </c>
+      <c r="BJ556">
+        <v>3.3</v>
+      </c>
+      <c r="BK556">
+        <v>1.7</v>
+      </c>
+      <c r="BL556">
+        <v>2.05</v>
+      </c>
+      <c r="BM556">
+        <v>1.9</v>
+      </c>
+      <c r="BN556">
+        <v>1.8</v>
+      </c>
+      <c r="BO556">
+        <v>2.45</v>
+      </c>
+      <c r="BP556">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="653">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1971,6 +1971,9 @@
   <si>
     <t>['6', '16']</t>
   </si>
+  <si>
+    <t>['3', '30', '48', '80', '90+2']</t>
+  </si>
 </sst>
 </file>
 
@@ -2331,7 +2334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP556"/>
+  <dimension ref="A1:BP557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5555,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5964,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ18">
         <v>0.78</v>
@@ -12559,7 +12562,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ50">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR50">
         <v>1.78</v>
@@ -13380,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ54">
         <v>1.25</v>
@@ -15649,7 +15652,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ65">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR65">
         <v>1.58</v>
@@ -18118,7 +18121,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -20178,7 +20181,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ87">
         <v>1.83</v>
@@ -23683,7 +23686,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ104">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -24916,7 +24919,7 @@
         <v>0.8</v>
       </c>
       <c r="AP110">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ110">
         <v>1.43</v>
@@ -28833,7 +28836,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ129">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR129">
         <v>1.21</v>
@@ -32332,7 +32335,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ146">
         <v>1.22</v>
@@ -36661,7 +36664,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ167">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR167">
         <v>1.33</v>
@@ -37276,7 +37279,7 @@
         <v>1.14</v>
       </c>
       <c r="AP170">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ170">
         <v>1.48</v>
@@ -39336,7 +39339,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ180">
         <v>0.7</v>
@@ -40163,7 +40166,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ184">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR184">
         <v>1.53</v>
@@ -45519,7 +45522,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ210">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR210">
         <v>1.36</v>
@@ -49021,7 +49024,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ227">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR227">
         <v>1.55</v>
@@ -50254,7 +50257,7 @@
         <v>0.44</v>
       </c>
       <c r="AP233">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ233">
         <v>0.74</v>
@@ -51699,7 +51702,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ240">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR240">
         <v>1.54</v>
@@ -54374,7 +54377,7 @@
         <v>1</v>
       </c>
       <c r="AP253">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ253">
         <v>1</v>
@@ -57673,7 +57676,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ269">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR269">
         <v>1.44</v>
@@ -58288,7 +58291,7 @@
         <v>0.82</v>
       </c>
       <c r="AP272">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ272">
         <v>0.87</v>
@@ -60966,10 +60969,10 @@
         <v>1.09</v>
       </c>
       <c r="AP285">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ285">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR285">
         <v>1.47</v>
@@ -65501,7 +65504,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ307">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR307">
         <v>1.41</v>
@@ -68794,7 +68797,7 @@
         <v>1.08</v>
       </c>
       <c r="AP323">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ323">
         <v>1.3</v>
@@ -69618,7 +69621,7 @@
         <v>1.5</v>
       </c>
       <c r="AP327">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ327">
         <v>1.13</v>
@@ -70442,7 +70445,7 @@
         <v>1.46</v>
       </c>
       <c r="AP331">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ331">
         <v>1.22</v>
@@ -75798,7 +75801,7 @@
         <v>1.15</v>
       </c>
       <c r="AP357">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ357">
         <v>0.96</v>
@@ -76213,7 +76216,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ359">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR359">
         <v>1.23</v>
@@ -82184,7 +82187,7 @@
         <v>1.33</v>
       </c>
       <c r="AP388">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ388">
         <v>1.48</v>
@@ -82393,7 +82396,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ389">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR389">
         <v>1.64</v>
@@ -84247,7 +84250,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ398">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR398">
         <v>1.51</v>
@@ -84862,7 +84865,7 @@
         <v>1.07</v>
       </c>
       <c r="AP401">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ401">
         <v>0.96</v>
@@ -88161,7 +88164,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ417">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR417">
         <v>1.25</v>
@@ -90015,7 +90018,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ426">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR426">
         <v>1.25</v>
@@ -91042,7 +91045,7 @@
         <v>1.22</v>
       </c>
       <c r="AP431">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ431">
         <v>1.22</v>
@@ -94956,7 +94959,7 @@
         <v>1.5</v>
       </c>
       <c r="AP450">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ450">
         <v>1.5</v>
@@ -98255,7 +98258,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ466">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR466">
         <v>1.46</v>
@@ -100106,7 +100109,7 @@
         <v>1.05</v>
       </c>
       <c r="AP475">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ475">
         <v>1</v>
@@ -102375,7 +102378,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ486">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR486">
         <v>1.32</v>
@@ -104641,7 +104644,7 @@
         <v>2</v>
       </c>
       <c r="AQ497">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR497">
         <v>1.96</v>
@@ -106083,7 +106086,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ504">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR504">
         <v>1.83</v>
@@ -107934,7 +107937,7 @@
         <v>1.71</v>
       </c>
       <c r="AP513">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ513">
         <v>1.74</v>
@@ -111645,7 +111648,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ531">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AR531">
         <v>1.37</v>
@@ -114320,7 +114323,7 @@
         <v>0.77</v>
       </c>
       <c r="AP544">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AQ544">
         <v>0.78</v>
@@ -116586,10 +116589,10 @@
         <v>1.7</v>
       </c>
       <c r="AP555">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AQ555">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AR555">
         <v>1.53</v>
@@ -116807,31 +116810,31 @@
         <v>2.65</v>
       </c>
       <c r="AU556">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV556">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW556">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX556">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY556">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AZ556">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA556">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BB556">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BC556">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BD556">
         <v>1.85</v>
@@ -116871,6 +116874,212 @@
       </c>
       <c r="BP556">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="557" spans="1:68">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="B557">
+        <v>7424139</v>
+      </c>
+      <c r="C557" t="s">
+        <v>68</v>
+      </c>
+      <c r="D557" t="s">
+        <v>69</v>
+      </c>
+      <c r="E557" s="2">
+        <v>45423.65625</v>
+      </c>
+      <c r="F557">
+        <v>0</v>
+      </c>
+      <c r="G557" t="s">
+        <v>86</v>
+      </c>
+      <c r="H557" t="s">
+        <v>79</v>
+      </c>
+      <c r="I557">
+        <v>1</v>
+      </c>
+      <c r="J557">
+        <v>2</v>
+      </c>
+      <c r="K557">
+        <v>3</v>
+      </c>
+      <c r="L557">
+        <v>1</v>
+      </c>
+      <c r="M557">
+        <v>5</v>
+      </c>
+      <c r="N557">
+        <v>6</v>
+      </c>
+      <c r="O557" t="s">
+        <v>322</v>
+      </c>
+      <c r="P557" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q557">
+        <v>2.25</v>
+      </c>
+      <c r="R557">
+        <v>2.25</v>
+      </c>
+      <c r="S557">
+        <v>4.33</v>
+      </c>
+      <c r="T557">
+        <v>1.33</v>
+      </c>
+      <c r="U557">
+        <v>3.1</v>
+      </c>
+      <c r="V557">
+        <v>2.45</v>
+      </c>
+      <c r="W557">
+        <v>1.48</v>
+      </c>
+      <c r="X557">
+        <v>5.85</v>
+      </c>
+      <c r="Y557">
+        <v>1.11</v>
+      </c>
+      <c r="Z557">
+        <v>1.98</v>
+      </c>
+      <c r="AA557">
+        <v>3.65</v>
+      </c>
+      <c r="AB557">
+        <v>3.15</v>
+      </c>
+      <c r="AC557">
+        <v>1.04</v>
+      </c>
+      <c r="AD557">
+        <v>10</v>
+      </c>
+      <c r="AE557">
+        <v>1.22</v>
+      </c>
+      <c r="AF557">
+        <v>4.2</v>
+      </c>
+      <c r="AG557">
+        <v>1.45</v>
+      </c>
+      <c r="AH557">
+        <v>2.45</v>
+      </c>
+      <c r="AI557">
+        <v>1.62</v>
+      </c>
+      <c r="AJ557">
+        <v>2.1</v>
+      </c>
+      <c r="AK557">
+        <v>1.2</v>
+      </c>
+      <c r="AL557">
+        <v>1.2</v>
+      </c>
+      <c r="AM557">
+        <v>2.1</v>
+      </c>
+      <c r="AN557">
+        <v>1.66</v>
+      </c>
+      <c r="AO557">
+        <v>1.55</v>
+      </c>
+      <c r="AP557">
+        <v>1.63</v>
+      </c>
+      <c r="AQ557">
+        <v>1.58</v>
+      </c>
+      <c r="AR557">
+        <v>1.57</v>
+      </c>
+      <c r="AS557">
+        <v>1.37</v>
+      </c>
+      <c r="AT557">
+        <v>2.94</v>
+      </c>
+      <c r="AU557">
+        <v>-1</v>
+      </c>
+      <c r="AV557">
+        <v>-1</v>
+      </c>
+      <c r="AW557">
+        <v>-1</v>
+      </c>
+      <c r="AX557">
+        <v>-1</v>
+      </c>
+      <c r="AY557">
+        <v>-1</v>
+      </c>
+      <c r="AZ557">
+        <v>-1</v>
+      </c>
+      <c r="BA557">
+        <v>-1</v>
+      </c>
+      <c r="BB557">
+        <v>-1</v>
+      </c>
+      <c r="BC557">
+        <v>-1</v>
+      </c>
+      <c r="BD557">
+        <v>1.34</v>
+      </c>
+      <c r="BE557">
+        <v>10</v>
+      </c>
+      <c r="BF557">
+        <v>3.84</v>
+      </c>
+      <c r="BG557">
+        <v>1.22</v>
+      </c>
+      <c r="BH557">
+        <v>3.8</v>
+      </c>
+      <c r="BI557">
+        <v>1.35</v>
+      </c>
+      <c r="BJ557">
+        <v>2.95</v>
+      </c>
+      <c r="BK557">
+        <v>1.7</v>
+      </c>
+      <c r="BL557">
+        <v>2.05</v>
+      </c>
+      <c r="BM557">
+        <v>1.77</v>
+      </c>
+      <c r="BN557">
+        <v>1.95</v>
+      </c>
+      <c r="BO557">
+        <v>2.05</v>
+      </c>
+      <c r="BP557">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
@@ -116810,22 +116810,22 @@
         <v>2.65</v>
       </c>
       <c r="AU556">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV556">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW556">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX556">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY556">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ556">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA556">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
@@ -117225,31 +117225,31 @@
         <v>2.77</v>
       </c>
       <c r="AU558">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV558">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW558">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX558">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY558">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ558">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA558">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB558">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC558">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD558">
         <v>1.59</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League Two_20232024.xlsx
@@ -116392,13 +116392,13 @@
         <v>1.54</v>
       </c>
       <c r="AR554">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AS554">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AT554">
-        <v>2.47</v>
+        <v>2.56</v>
       </c>
       <c r="AU554">
         <v>3</v>
@@ -116598,13 +116598,13 @@
         <v>1.63</v>
       </c>
       <c r="AR555">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AS555">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AT555">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="AU555">
         <v>7</v>
@@ -116804,13 +116804,13 @@
         <v>1.51</v>
       </c>
       <c r="AR556">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AS556">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT556">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU556">
         <v>4</v>
@@ -117010,13 +117010,13 @@
         <v>1.61</v>
       </c>
       <c r="AR557">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AS557">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AT557">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="AU557">
         <v>7</v>
@@ -117216,13 +117216,13 @@
         <v>1.51</v>
       </c>
       <c r="AR558">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AS558">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT558">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
       <c r="AU558">
         <v>8</v>
